--- a/templates/bulk/job-order-template.xlsx
+++ b/templates/bulk/job-order-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyData\Development\Project\smpm-backend\templates\bulk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAB2F02-EA36-403B-97BD-D8ED1FF1EAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C68436-9422-42A7-B15C-9D3512F77C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{88AB4F39-BFD6-497B-8E77-F151A133752C}"/>
   </bookViews>
@@ -319,9 +319,6 @@
 (Pilih list dropdown)</t>
   </si>
   <si>
-    <t>New Installation</t>
-  </si>
-  <si>
     <t>000100207005302</t>
   </si>
   <si>
@@ -387,6 +384,9 @@
   <si>
     <t>(DD-MMM-YY)
 (Otomatis by System)</t>
+  </si>
+  <si>
+    <t>CM Re-init</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,19 +459,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -644,7 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -691,18 +678,63 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -737,54 +769,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -806,7 +790,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ING"/>
@@ -1151,7 +1135,7 @@
   <dimension ref="A1:BN6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:BN9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1224,271 +1208,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="C1" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="V1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
       <c r="AF1" s="6"/>
       <c r="AG1" s="6"/>
-      <c r="AH1" s="33" t="s">
+      <c r="AH1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="44" t="s">
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="44"/>
-      <c r="BA1" s="44"/>
-      <c r="BB1" s="44"/>
-      <c r="BC1" s="44"/>
-      <c r="BD1" s="44"/>
-      <c r="BE1" s="44"/>
-      <c r="BF1" s="44"/>
-      <c r="BG1" s="44"/>
-      <c r="BH1" s="45" t="s">
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="17"/>
+      <c r="BB1" s="17"/>
+      <c r="BC1" s="17"/>
+      <c r="BD1" s="17"/>
+      <c r="BE1" s="17"/>
+      <c r="BF1" s="17"/>
+      <c r="BG1" s="17"/>
+      <c r="BH1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="BI1" s="45"/>
-      <c r="BJ1" s="45"/>
-      <c r="BK1" s="41" t="s">
+      <c r="BI1" s="21"/>
+      <c r="BJ1" s="21"/>
+      <c r="BK1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="BL1" s="41" t="s">
+      <c r="BL1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="BM1" s="41" t="s">
+      <c r="BM1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="BN1" s="41" t="s">
+      <c r="BN1" s="23" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="32" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="32" t="s">
+      <c r="W2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="32" t="s">
+      <c r="X2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Y2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="32" t="s">
+      <c r="Z2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="32" t="s">
+      <c r="AB2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32" t="s">
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32" t="s">
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="33" t="s">
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="34" t="s">
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="36" t="s">
+      <c r="AL2" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="33" t="s">
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AR2" s="33" t="s">
+      <c r="AR2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AS2" s="33" t="s">
+      <c r="AS2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AT2" s="33" t="s">
+      <c r="AT2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AU2" s="44" t="s">
+      <c r="AU2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AV2" s="44" t="s">
+      <c r="AV2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AW2" s="44" t="s">
+      <c r="AW2" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AX2" s="44" t="s">
+      <c r="AX2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AY2" s="44" t="s">
+      <c r="AY2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="AZ2" s="44" t="s">
+      <c r="AZ2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="BA2" s="44" t="s">
+      <c r="BA2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="BB2" s="44" t="s">
+      <c r="BB2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="BC2" s="44" t="s">
+      <c r="BC2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="BD2" s="44" t="s">
+      <c r="BD2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="BE2" s="44" t="s">
+      <c r="BE2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="BF2" s="44" t="s">
+      <c r="BF2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="BG2" s="44" t="s">
+      <c r="BG2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="BH2" s="45" t="s">
+      <c r="BH2" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="BI2" s="45" t="s">
+      <c r="BI2" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="BJ2" s="45" t="s">
+      <c r="BJ2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="BK2" s="41"/>
-      <c r="BL2" s="41"/>
-      <c r="BM2" s="41"/>
-      <c r="BN2" s="41"/>
+      <c r="BK2" s="23"/>
+      <c r="BL2" s="23"/>
+      <c r="BM2" s="23"/>
+      <c r="BN2" s="23"/>
     </row>
     <row r="3" spans="1:66" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="25"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>59</v>
@@ -1496,7 +1480,7 @@
       <c r="H3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="28"/>
+      <c r="I3" s="43"/>
       <c r="J3" s="2" t="s">
         <v>61</v>
       </c>
@@ -1509,20 +1493,20 @@
       <c r="M3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
       <c r="AB3" s="3" t="s">
         <v>62</v>
       </c>
@@ -1550,7 +1534,7 @@
       <c r="AJ3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AK3" s="35"/>
+      <c r="AK3" s="27"/>
       <c r="AL3" s="5" t="s">
         <v>69</v>
       </c>
@@ -1566,220 +1550,220 @@
       <c r="AP3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AQ3" s="34"/>
-      <c r="AR3" s="34"/>
-      <c r="AS3" s="34"/>
-      <c r="AT3" s="34"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="47"/>
-      <c r="AY3" s="47"/>
-      <c r="AZ3" s="47"/>
-      <c r="BA3" s="47"/>
-      <c r="BB3" s="47"/>
-      <c r="BC3" s="47"/>
-      <c r="BD3" s="47"/>
-      <c r="BE3" s="47"/>
-      <c r="BF3" s="47"/>
-      <c r="BG3" s="47"/>
-      <c r="BH3" s="46"/>
-      <c r="BI3" s="46"/>
-      <c r="BJ3" s="46"/>
-      <c r="BK3" s="42"/>
-      <c r="BL3" s="42"/>
-      <c r="BM3" s="42"/>
-      <c r="BN3" s="42"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="20"/>
+      <c r="AT3" s="20"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="18"/>
+      <c r="AZ3" s="18"/>
+      <c r="BA3" s="18"/>
+      <c r="BB3" s="18"/>
+      <c r="BC3" s="18"/>
+      <c r="BD3" s="18"/>
+      <c r="BE3" s="18"/>
+      <c r="BF3" s="18"/>
+      <c r="BG3" s="18"/>
+      <c r="BH3" s="22"/>
+      <c r="BI3" s="22"/>
+      <c r="BJ3" s="22"/>
+      <c r="BK3" s="24"/>
+      <c r="BL3" s="24"/>
+      <c r="BM3" s="24"/>
+      <c r="BN3" s="24"/>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>93</v>
+      <c r="C4" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="12" t="s">
+      <c r="L4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="M4" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
       <c r="P4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="R4" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="S4" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="T4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="U4" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="V4" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="V4" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="W4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB4" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC4" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL4" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM4" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN4" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AO4" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP4" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ4" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AR4" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AS4" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT4" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AU4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AV4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AW4" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AX4" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AY4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AZ4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BA4" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BB4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BC4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BD4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BE4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BF4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BG4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BH4" s="10">
         <v>5</v>
       </c>
       <c r="BI4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BJ4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK4" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BJ4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BK4" s="16" t="s">
+      <c r="BL4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="BM4" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="BL4" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="BM4" s="16" t="s">
+      <c r="BN4" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="BN4" s="16" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.3">
@@ -1789,27 +1773,33 @@
       <c r="F6" s="11"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <mergeCells count="61">
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="BE2:BE3"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="BG2:BG3"/>
-    <mergeCell ref="BH2:BH3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
     <mergeCell ref="BM1:BM3"/>
     <mergeCell ref="BN1:BN3"/>
     <mergeCell ref="V2:V3"/>
@@ -1826,36 +1816,31 @@
     <mergeCell ref="BH1:BJ1"/>
     <mergeCell ref="BK1:BK3"/>
     <mergeCell ref="BL1:BL3"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BE2:BE3"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="BH2:BH3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Option" error="Please select a valid option from the dropdown list." sqref="E4:E1048576" xr:uid="{4948F1A1-CD90-48F9-84EC-62AB6DC88E72}">
-      <formula1>"New Installation, CM Replace, CM Re-init, Withdrawal, Cancel Installation, Cancel Withdrawal"</formula1>
+      <formula1>"New Installation, CM Replace, CM Re-init, Preventive Maintenance, Withdrawal, Cancel Installation, Cancel Withdrawal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Option" error="Please select a valid option from the dropdown list." sqref="BN4:BN1048576" xr:uid="{9DC21646-1354-46D5-B42F-130B704E8D2C}">
       <formula1>"Sewa, Milik"</formula1>
@@ -1869,7 +1854,7 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576 A1:A1048576 G4:U1048576 BH4:BH1048576 BO1:XFD1048576 BK4:BL1048576" xr:uid="{1A8CAAEE-F090-48CC-8440-60A22B2713D6}">
       <formula1>"AND(ISNUMBER(MATCH(TEXT(A2,""DD-MMM-YY""),TEXT(A2,""DD-MMM-YY""),0)),LEN(A2)=9)"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Otomatis by System" prompt="EDM07-MI-10112023-IS-SW-000001_x000a_-EDM : Nama Unit_x000a_-07 : Kode Wilayah_x000a_-MI : Kode Vendor_x000a_-10112023 : tanggal JO diterbitkan_x000a_-IS = New Installation_x000a_-CM = CM Replace/Re-init_x000a_-WD = Withdrawal_x000a_-SW = Sewa_x000a_-MS = Milik_x000a_-1 = nomor urut JO diterbitkan dalam 1 hari" sqref="B4:B1048576" xr:uid="{AE78DC6B-396E-479B-9796-B80CADCE35CF}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" promptTitle="Otomatis by System" prompt="EDM07-MI-10112023-IS-SW-000001_x000a_-EDM : Nama Unit_x000a_-07 : Kode Wilayah_x000a_-MI : Kode Vendor_x000a_-10112023 : tanggal JO diterbitkan_x000a_-IS = New Installation_x000a_-PM_x000a_-CM = CM Replace/Re-init_x000a_-WD = Withdrawal_x000a_-SW = Sewa_x000a_-MS = Milik_x000a_-1 = nomor urut JO diterbitkan dalam 1 hari" sqref="B4:B1048576" xr:uid="{AE78DC6B-396E-479B-9796-B80CADCE35CF}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Option" error="Please select a valid option from the dropdown list." sqref="V4:BG1048576 BI4:BJ1048576" xr:uid="{BAB97DB1-942E-4B48-B4B8-F887701BA1AF}">
       <formula1>"YA, TIDAK"</formula1>
     </dataValidation>

--- a/templates/bulk/job-order-template.xlsx
+++ b/templates/bulk/job-order-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\zegen-smpm\smpm-backend-main\templates\bulk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C68436-9422-42A7-B15C-9D3512F77C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01DAF39-2722-4321-881D-E11BAE107EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{88AB4F39-BFD6-497B-8E77-F151A133752C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="97">
   <si>
     <t>NO</t>
   </si>
@@ -319,12 +319,6 @@
 (Pilih list dropdown)</t>
   </si>
   <si>
-    <t>000100207005302</t>
-  </si>
-  <si>
-    <t>07530202</t>
-  </si>
-  <si>
     <t>ANUGRAH SHOP MBL</t>
   </si>
   <si>
@@ -386,7 +380,13 @@
 (Otomatis by System)</t>
   </si>
   <si>
-    <t>CM Re-init</t>
+    <t>New Installation</t>
+  </si>
+  <si>
+    <t>TID1321312412</t>
+  </si>
+  <si>
+    <t>Zegen Solusi Mandiri</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +465,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Overpass"/>
     </font>
   </fonts>
   <fills count="11">
@@ -631,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -771,6 +776,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1135,10 +1141,10 @@
   <dimension ref="A1:BN6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="14" customWidth="1"/>
     <col min="2" max="2" width="34" style="14" customWidth="1"/>
@@ -1207,7 +1213,7 @@
     <col min="67" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:66" ht="14.4" customHeight="1">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1215,10 +1221,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E1" s="39" t="s">
         <v>2</v>
@@ -1333,7 +1339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:66">
       <c r="A2" s="35"/>
       <c r="B2" s="37"/>
       <c r="C2" s="44"/>
@@ -1465,14 +1471,14 @@
       <c r="BM2" s="23"/>
       <c r="BN2" s="23"/>
     </row>
-    <row r="3" spans="1:66" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:66" ht="61.2">
       <c r="A3" s="36"/>
       <c r="B3" s="38"/>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
       <c r="E3" s="40"/>
       <c r="F3" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>59</v>
@@ -1575,201 +1581,201 @@
       <c r="BM3" s="24"/>
       <c r="BN3" s="24"/>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:66" ht="27.6">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="9">
+        <v>1122112211</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9" t="s">
+      <c r="J4" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="K4" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="L4" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" s="12" t="s">
+      <c r="M4" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>79</v>
       </c>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
       <c r="P4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="R4" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="S4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="T4" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="U4" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="V4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB4" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="U4" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="V4" s="10" t="s">
+      <c r="AC4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH4" s="10">
+        <v>9</v>
+      </c>
+      <c r="BI4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK4" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="BL4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM4" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="X4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB4" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC4" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL4" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM4" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN4" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO4" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AP4" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ4" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR4" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS4" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT4" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AV4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AW4" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AX4" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AY4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BA4" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="BB4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BC4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BD4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BF4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BH4" s="10">
-        <v>5</v>
-      </c>
-      <c r="BI4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BJ4" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="BK4" s="10" t="s">
+      <c r="BN4" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BL4" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BM4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="BN4" s="10" t="s">
-        <v>90</v>
-      </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:66">
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:66">
       <c r="F6" s="11"/>
     </row>
   </sheetData>
@@ -1838,7 +1844,7 @@
     <mergeCell ref="AV2:AV3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <dataValidations count="7">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Option" error="Please select a valid option from the dropdown list." sqref="E4:E1048576" xr:uid="{4948F1A1-CD90-48F9-84EC-62AB6DC88E72}">
       <formula1>"New Installation, CM Replace, CM Re-init, Preventive Maintenance, Withdrawal, Cancel Installation, Cancel Withdrawal"</formula1>
     </dataValidation>
@@ -1848,16 +1854,18 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Option" error="Please select a valid option from the dropdown list." sqref="BM4:BM1048576" xr:uid="{796B9760-8BF8-493D-9212-412C82570CCD}">
       <formula1>"Retail, Local Chainstore, National Chainstore, Strategic, Agen46"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="U4" xr:uid="{714B0DCC-D60A-40CF-826E-DF031A35906E}">
-      <formula1>Provider</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576 A1:A1048576 G4:U1048576 BH4:BH1048576 BO1:XFD1048576 BK4:BL1048576" xr:uid="{1A8CAAEE-F090-48CC-8440-60A22B2713D6}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576 A1:A1048576 BO1:XFD1048576" xr:uid="{1A8CAAEE-F090-48CC-8440-60A22B2713D6}">
       <formula1>"AND(ISNUMBER(MATCH(TEXT(A2,""DD-MMM-YY""),TEXT(A2,""DD-MMM-YY""),0)),LEN(A2)=9)"</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" promptTitle="Otomatis by System" prompt="EDM07-MI-10112023-IS-SW-000001_x000a_-EDM : Nama Unit_x000a_-07 : Kode Wilayah_x000a_-MI : Kode Vendor_x000a_-10112023 : tanggal JO diterbitkan_x000a_-IS = New Installation_x000a_-PM_x000a_-CM = CM Replace/Re-init_x000a_-WD = Withdrawal_x000a_-SW = Sewa_x000a_-MS = Milik_x000a_-1 = nomor urut JO diterbitkan dalam 1 hari" sqref="B4:B1048576" xr:uid="{AE78DC6B-396E-479B-9796-B80CADCE35CF}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Option" error="Please select a valid option from the dropdown list." sqref="V4:BG1048576 BI4:BJ1048576" xr:uid="{BAB97DB1-942E-4B48-B4B8-F887701BA1AF}">
       <formula1>"YA, TIDAK"</formula1>
     </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 H1:H1048576 I1:I1048576 J1:J1048576 K1:U1048576 BK1:BL1048576" xr:uid="{A39C38F2-BEB3-4202-BCE5-0BA11219E3E8}"/>
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="BH1:BH1048576" xr:uid="{C10A801D-98F2-444A-BAC2-3BD682820F33}">
+      <formula1>1</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
